--- a/Program/Other/URS會議審查紀錄/DbLayouts/L7-介接外部系統/Ifrs9FacData.xlsx
+++ b/Program/Other/URS會議審查紀錄/DbLayouts/L7-介接外部系統/Ifrs9FacData.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24729"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\SKL\DB\GenTables\L7-介接外部系統\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\SKL\DB\GenTables\L7-介接外部系統\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C7A2814-A29F-4EC5-9469-BAC4938B6DDE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59D758A5-71F9-400F-84AB-7D8B2F16951C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="605" uniqueCount="334">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="605" uniqueCount="340">
   <si>
     <t>讀取Key條件</t>
     <phoneticPr fontId="6" type="noConversion"/>
@@ -1054,11 +1054,6 @@
     <t>ApproveDate</t>
   </si>
   <si>
-    <t>1.優先取用對保日期
-2.無對保日採用准駁日</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>動支期限</t>
   </si>
   <si>
@@ -1088,11 +1083,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>0: 可撤銷  
-1: 不可撤銷</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>AcSubBookCode</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -1104,10 +1094,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>000:全公司      (舊:null 一般)</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve">    -- 寫入已動撥額度</t>
   </si>
   <si>
@@ -1387,6 +1373,53 @@
   </si>
   <si>
     <t>NVL("FacProd"."Ifrs9ProdCode", ' ')</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>0:未核撥  
+1:已核撥</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>1:優先取用對保日期
+2:無對保日採用准駁日</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>1:按月繳息(按期繳息到期還本)
+2:到期取息(到期繳息還本)
+3:本息平均法(期金)
+4:本金平均法
+5:按月撥款收息(逆向貸款)</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>1:機動 
+2:固定
+3:定期機動</t>
+  </si>
+  <si>
+    <t>空白:非階梯式
+A:固定階梯
+B:浮動階梯</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>作為群組分類。Ex：1=員工；2=車貸；3＝房貸；4＝政府優惠貸款…etc</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>0:非循環動用  
+1:循環動用</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>0:可撤銷  
+1:不可撤銷</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>000:全公司      (舊：null 一般)</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -2216,8 +2249,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H55"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView tabSelected="1" topLeftCell="A40" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G46" sqref="G46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="72.88671875" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -2478,7 +2511,7 @@
       </c>
       <c r="F14" s="19"/>
       <c r="G14" s="38" t="s">
-        <v>48</v>
+        <v>331</v>
       </c>
       <c r="H14" s="43" t="s">
         <v>185</v>
@@ -2502,10 +2535,10 @@
       </c>
       <c r="F15" s="19"/>
       <c r="G15" s="18" t="s">
-        <v>229</v>
+        <v>332</v>
       </c>
       <c r="H15" s="46" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="16" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.3">
@@ -2513,10 +2546,10 @@
         <v>8</v>
       </c>
       <c r="B16" s="18" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C16" s="18" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D16" s="18" t="s">
         <v>32</v>
@@ -2527,7 +2560,7 @@
       <c r="F16" s="19"/>
       <c r="G16" s="38"/>
       <c r="H16" s="43" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.3">
@@ -2720,7 +2753,7 @@
       </c>
       <c r="F24" s="19"/>
       <c r="G24" s="38" t="s">
-        <v>149</v>
+        <v>333</v>
       </c>
       <c r="H24" s="43" t="s">
         <v>225</v>
@@ -2744,7 +2777,7 @@
       </c>
       <c r="F25" s="19"/>
       <c r="G25" s="38" t="s">
-        <v>152</v>
+        <v>334</v>
       </c>
       <c r="H25" s="43" t="s">
         <v>226</v>
@@ -2803,7 +2836,7 @@
         <v>20</v>
       </c>
       <c r="B28" s="18" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="C28" s="18" t="s">
         <v>140</v>
@@ -2816,10 +2849,10 @@
       </c>
       <c r="F28" s="19"/>
       <c r="G28" s="38" t="s">
-        <v>141</v>
+        <v>335</v>
       </c>
       <c r="H28" s="43" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
     </row>
     <row r="29" spans="1:8" s="7" customFormat="1" ht="48.6" x14ac:dyDescent="0.3">
@@ -2865,7 +2898,7 @@
         <v>156</v>
       </c>
       <c r="H30" s="43" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="31" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.3">
@@ -3033,7 +3066,7 @@
         <v>30</v>
       </c>
       <c r="B38" s="18" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="C38" s="18" t="s">
         <v>163</v>
@@ -3046,10 +3079,10 @@
       </c>
       <c r="F38" s="19"/>
       <c r="G38" s="38" t="s">
-        <v>162</v>
+        <v>336</v>
       </c>
       <c r="H38" s="43" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
     </row>
     <row r="39" spans="1:8" s="7" customFormat="1" ht="113.4" x14ac:dyDescent="0.3">
@@ -3170,7 +3203,7 @@
       </c>
       <c r="F43" s="19"/>
       <c r="G43" s="38" t="s">
-        <v>173</v>
+        <v>337</v>
       </c>
       <c r="H43" s="44" t="s">
         <v>193</v>
@@ -3184,7 +3217,7 @@
         <v>33</v>
       </c>
       <c r="C44" s="18" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D44" s="18" t="s">
         <v>28</v>
@@ -3194,7 +3227,7 @@
       </c>
       <c r="F44" s="19"/>
       <c r="G44" s="38" t="s">
-        <v>237</v>
+        <v>338</v>
       </c>
       <c r="H44" s="44" t="s">
         <v>192</v>
@@ -3229,7 +3262,7 @@
         <v>38</v>
       </c>
       <c r="B46" s="47" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C46" s="47" t="s">
         <v>63</v>
@@ -3242,10 +3275,10 @@
       </c>
       <c r="F46" s="49"/>
       <c r="G46" s="55" t="s">
-        <v>241</v>
+        <v>339</v>
       </c>
       <c r="H46" s="54" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
     </row>
     <row r="47" spans="1:8" s="7" customFormat="1" ht="32.4" x14ac:dyDescent="0.3">
@@ -3253,10 +3286,10 @@
         <v>39</v>
       </c>
       <c r="B47" s="50" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="C47" s="50" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="D47" s="50" t="s">
         <v>3</v>
@@ -3266,10 +3299,10 @@
       </c>
       <c r="F47" s="52"/>
       <c r="G47" s="53" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="H47" s="54" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
     </row>
     <row r="48" spans="1:8" s="26" customFormat="1" x14ac:dyDescent="0.3">
@@ -3493,122 +3526,122 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" s="56" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" s="57" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" s="57" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4" s="57" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5" s="57" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A6" s="57" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A7" s="57" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A8" s="57" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A9" s="57" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A10" s="57" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A12" s="57" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A13" s="57" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A14" s="57" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A15" s="57" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A16" s="57" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17" s="57" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A18" s="57" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A19" s="57" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A20" s="57" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A21" s="57" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A22" s="57" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A23" s="57" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A24" s="57" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A25" s="57" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
     </row>
   </sheetData>
@@ -3634,507 +3667,507 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" s="57" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" s="56" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" s="56" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4" s="56" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5" s="56" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A6" s="57" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A7" s="56" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A8" s="56" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A9" s="56" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A10" s="56" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A11" s="56" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A12" s="56" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A13" s="56" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A14" s="56" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A15" s="56" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A16" s="56" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17" s="57" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A18" s="57" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A19" s="57" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A20" s="57" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A21" s="57" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A22" s="57" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A23" s="57" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A24" s="57" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A25" s="57" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A26" s="57" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A27" s="57" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A28" s="57" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A29" s="57" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A30" s="57" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A31" s="57" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A32" s="57" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A33" s="57" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A34" s="57" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A35" s="57" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A36" s="57" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A37" s="57" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A38" s="57" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A39" s="57" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A40" s="57" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A41" s="57" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A42" s="57" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A43" s="57" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A44" s="57" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A45" s="57" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A46" s="57" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A47" s="57" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A48" s="57" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A49" s="57" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A50" s="57" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A51" s="57" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A52" s="57" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A53" s="57" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A54" s="57" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A55" s="57" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A56" s="57" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A57" s="57" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A58" s="57" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A59" s="57" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
     </row>
     <row r="60" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A60" s="57" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
     </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A61" s="57" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
     </row>
     <row r="62" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A62" s="57" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
     </row>
     <row r="63" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A63" s="57" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
     </row>
     <row r="64" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A64" s="57" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A65" s="57" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A66" s="57" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A67" s="57" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
     </row>
     <row r="68" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A68" s="57" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A69" s="57" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
     </row>
     <row r="70" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A70" s="57" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
     </row>
     <row r="71" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A71" s="57" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
     </row>
     <row r="72" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A72" s="57" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
     </row>
     <row r="73" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A73" s="57" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
     </row>
     <row r="74" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A74" s="57" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
     </row>
     <row r="75" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A75" s="57" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
     </row>
     <row r="76" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A76" s="57" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
     </row>
     <row r="77" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A77" s="57" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
     </row>
     <row r="78" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A78" s="57" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
     </row>
     <row r="79" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A79" s="57" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
     </row>
     <row r="80" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A80" s="57" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
     </row>
     <row r="81" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A81" s="57" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
     </row>
     <row r="82" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A82" s="57" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
     </row>
     <row r="83" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A83" s="57" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
     </row>
     <row r="84" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A84" s="57" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
     </row>
     <row r="85" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A85" s="57" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
     </row>
     <row r="86" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A86" s="57" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
     </row>
     <row r="87" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A87" s="57" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
     </row>
     <row r="88" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A88" s="57" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
     </row>
     <row r="89" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A89" s="57" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
     </row>
     <row r="90" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A90" s="57" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
     </row>
     <row r="91" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A91" s="57" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
     </row>
     <row r="92" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A92" s="57" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
     </row>
     <row r="93" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A93" s="57" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
     </row>
     <row r="94" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A94" s="57" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
     </row>
     <row r="95" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A95" s="57" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
     </row>
     <row r="96" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A96" s="57" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
     </row>
     <row r="97" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A97" s="57" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
     </row>
     <row r="98" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A98" s="57" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
     </row>
     <row r="99" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A99" s="57" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
     </row>
     <row r="100" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A100" s="57" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
     </row>
     <row r="101" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A101" s="57" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
     </row>
   </sheetData>
